--- a/professional sites.xlsx
+++ b/professional sites.xlsx
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
